--- a/data/imputed/Congressional Election Results by State (2018 - 116th) IMPUTED.xlsx
+++ b/data/imputed/Congressional Election Results by State (2018 - 116th) IMPUTED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11222"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/ushouse/data/imputed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E77F50-1259-A041-9733-1D07233C17B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44101978-4E5F-3C4A-99A4-B2D9851A2890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="500" windowWidth="27620" windowHeight="17500" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="500" windowWidth="27600" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -3099,7 +3099,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA87FBC7-6BCE-E040-9D92-96D5B48AF63B}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA87FBC7-6BCE-E040-9D92-96D5B48AF63B}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:F54" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="21">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -3890,7 +3890,7 @@
   <dimension ref="A1:Z58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="X3" sqref="X3:X52"/>
@@ -8362,6 +8362,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A2:Z52" xr:uid="{452F9551-05D5-0141-B631-685BC4367B4D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:AH54">
     <sortCondition ref="A5:A54"/>
@@ -8377,8 +8378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="U77" sqref="A1:U77"/>
@@ -14343,6 +14344,7 @@
       <c r="R82" s="42"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A2:J77" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15404,6 +15406,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15412,7 +15415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18AD1867-4C5E-1B47-B789-7FC7B6F66E4A}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A52" sqref="A52:XFD57"/>
     </sheetView>
   </sheetViews>
@@ -17360,6 +17363,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>